--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,10 +82,10 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.166450999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N2">
-        <v>12.499353</v>
+        <v>13.988392</v>
       </c>
       <c r="O2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P2">
-        <v>0.7126954333415383</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q2">
-        <v>2.462280879078</v>
+        <v>3.205382518966223</v>
       </c>
       <c r="R2">
-        <v>22.160527911702</v>
+        <v>28.848442670696</v>
       </c>
       <c r="S2">
-        <v>0.09697415306352281</v>
+        <v>0.1707342886080049</v>
       </c>
       <c r="T2">
-        <v>0.09697415306352281</v>
+        <v>0.1707342886080049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P3">
-        <v>0.1138523176430159</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q3">
-        <v>0.3933466831079999</v>
+        <v>0.457548886806</v>
       </c>
       <c r="R3">
-        <v>3.540120147971999</v>
+        <v>4.117939981254</v>
       </c>
       <c r="S3">
-        <v>0.01549151511464743</v>
+        <v>0.02437128275017905</v>
       </c>
       <c r="T3">
-        <v>0.01549151511464743</v>
+        <v>0.02437128275017905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.01401</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N4">
-        <v>3.04203</v>
+        <v>2.36825</v>
       </c>
       <c r="O4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P4">
-        <v>0.1734522490154458</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q4">
-        <v>0.5992576017800001</v>
+        <v>0.5426747513611111</v>
       </c>
       <c r="R4">
-        <v>5.39331841602</v>
+        <v>4.88407276225</v>
       </c>
       <c r="S4">
-        <v>0.02360108421962547</v>
+        <v>0.02890550100368274</v>
       </c>
       <c r="T4">
-        <v>0.02360108421962547</v>
+        <v>0.02890550100368274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4681106666666667</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H5">
-        <v>1.404332</v>
+        <v>2.062313</v>
       </c>
       <c r="I5">
-        <v>0.1077777822120289</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J5">
-        <v>0.1077777822120289</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.166450999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N5">
-        <v>12.499353</v>
+        <v>0.241735</v>
       </c>
       <c r="O5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P5">
-        <v>0.7126954333415383</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q5">
-        <v>1.950360155244</v>
+        <v>0.05539258145055556</v>
       </c>
       <c r="R5">
-        <v>17.553241397196</v>
+        <v>0.498533233055</v>
       </c>
       <c r="S5">
-        <v>0.07681273319819189</v>
+        <v>0.002950478743851049</v>
       </c>
       <c r="T5">
-        <v>0.07681273319819189</v>
+        <v>0.00295047874385105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4681106666666667</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H6">
-        <v>1.404332</v>
+        <v>2.062313</v>
       </c>
       <c r="I6">
-        <v>0.1077777822120289</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J6">
-        <v>0.1077777822120289</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6655859999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N6">
-        <v>1.996758</v>
+        <v>0.50166</v>
       </c>
       <c r="O6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P6">
-        <v>0.1138523176430159</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q6">
-        <v>0.311567906184</v>
+        <v>0.11495332662</v>
       </c>
       <c r="R6">
-        <v>2.804111155656</v>
+        <v>1.03457993958</v>
       </c>
       <c r="S6">
-        <v>0.0122707502952637</v>
+        <v>0.006122974193394906</v>
       </c>
       <c r="T6">
-        <v>0.0122707502952637</v>
+        <v>0.006122974193394906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>1.404332</v>
       </c>
       <c r="I7">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J7">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,33 +868,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01401</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N7">
-        <v>3.04203</v>
+        <v>13.988392</v>
       </c>
       <c r="O7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P7">
-        <v>0.1734522490154458</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q7">
-        <v>0.4746688971066668</v>
+        <v>2.182705168238223</v>
       </c>
       <c r="R7">
-        <v>4.27202007396</v>
+        <v>19.644346514144</v>
       </c>
       <c r="S7">
-        <v>0.01869429871857333</v>
+        <v>0.1162615107354979</v>
       </c>
       <c r="T7">
-        <v>0.01869429871857332</v>
+        <v>0.1162615107354979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.02272533333333333</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H8">
-        <v>0.068176</v>
+        <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.00523227988829371</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J8">
-        <v>0.00523227988829371</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,60 +930,60 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.166450999999999</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N8">
-        <v>12.499353</v>
+        <v>1.996758</v>
       </c>
       <c r="O8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P8">
-        <v>0.7126954333415383</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q8">
-        <v>0.09468398779199999</v>
+        <v>0.311567906184</v>
       </c>
       <c r="R8">
-        <v>0.852155890128</v>
+        <v>2.804111155656</v>
       </c>
       <c r="S8">
-        <v>0.003729021982351701</v>
+        <v>0.01659562454735263</v>
       </c>
       <c r="T8">
-        <v>0.003729021982351701</v>
+        <v>0.01659562454735263</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.02272533333333333</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H9">
-        <v>0.068176</v>
+        <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.00523227988829371</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J9">
-        <v>0.00523227988829371</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6655859999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N9">
-        <v>1.996758</v>
+        <v>2.36825</v>
       </c>
       <c r="O9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P9">
-        <v>0.1138523176430159</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q9">
-        <v>0.015125663712</v>
+        <v>0.3695343621111111</v>
       </c>
       <c r="R9">
-        <v>0.136130973408</v>
+        <v>3.325809259</v>
       </c>
       <c r="S9">
-        <v>0.000595707191839179</v>
+        <v>0.01968320038495795</v>
       </c>
       <c r="T9">
-        <v>0.000595707191839179</v>
+        <v>0.01968320038495796</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,57 +1030,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.404332</v>
+      </c>
+      <c r="I10">
+        <v>0.1587189032810992</v>
+      </c>
+      <c r="J10">
+        <v>0.1587189032810992</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.02272533333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.068176</v>
-      </c>
-      <c r="I10">
-        <v>0.00523227988829371</v>
-      </c>
-      <c r="J10">
-        <v>0.00523227988829371</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>1.01401</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N10">
-        <v>3.04203</v>
+        <v>0.241735</v>
       </c>
       <c r="O10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P10">
-        <v>0.1734522490154458</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q10">
-        <v>0.02304371525333334</v>
+        <v>0.03771957733555556</v>
       </c>
       <c r="R10">
-        <v>0.20739343728</v>
+        <v>0.3394761960200001</v>
       </c>
       <c r="S10">
-        <v>0.0009075507141028297</v>
+        <v>0.00200912844719004</v>
       </c>
       <c r="T10">
-        <v>0.0009075507141028295</v>
+        <v>0.00200912844719004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,51 +1098,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.157754</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H11">
-        <v>9.473262</v>
+        <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.7270411616864739</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J11">
-        <v>0.7270411616864739</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>4.166450999999999</v>
+        <v>0.16722</v>
       </c>
       <c r="N11">
-        <v>12.499353</v>
+        <v>0.50166</v>
       </c>
       <c r="O11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="P11">
-        <v>0.7126954333415383</v>
+        <v>0.02626932948696365</v>
       </c>
       <c r="Q11">
-        <v>13.156627311054</v>
+        <v>0.07827746568000002</v>
       </c>
       <c r="R11">
-        <v>118.409645799486</v>
+        <v>0.7044971911200001</v>
       </c>
       <c r="S11">
-        <v>0.518158915785277</v>
+        <v>0.004169439166100711</v>
       </c>
       <c r="T11">
-        <v>0.518158915785277</v>
+        <v>0.004169439166100711</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.157754</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H12">
-        <v>9.473262</v>
+        <v>5.274976</v>
       </c>
       <c r="I12">
-        <v>0.7270411616864739</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J12">
-        <v>0.7270411616864739</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6655859999999999</v>
+        <v>4.662797333333334</v>
       </c>
       <c r="N12">
-        <v>1.996758</v>
+        <v>13.988392</v>
       </c>
       <c r="O12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787992</v>
       </c>
       <c r="P12">
-        <v>0.1138523176430159</v>
+        <v>0.7324994586787993</v>
       </c>
       <c r="Q12">
-        <v>2.101756853844</v>
+        <v>8.198714675399112</v>
       </c>
       <c r="R12">
-        <v>18.915811684596</v>
+        <v>73.788432078592</v>
       </c>
       <c r="S12">
-        <v>0.08277532127987568</v>
+        <v>0.4367034852538385</v>
       </c>
       <c r="T12">
-        <v>0.08277532127987568</v>
+        <v>0.4367034852538385</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.157754</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H13">
-        <v>9.473262</v>
+        <v>5.274976</v>
       </c>
       <c r="I13">
-        <v>0.7270411616864739</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J13">
-        <v>0.7270411616864739</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.01401</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N13">
-        <v>3.04203</v>
+        <v>1.996758</v>
       </c>
       <c r="O13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="P13">
-        <v>0.1734522490154458</v>
+        <v>0.1045598489170565</v>
       </c>
       <c r="Q13">
-        <v>3.20199413354</v>
+        <v>1.170316725312</v>
       </c>
       <c r="R13">
-        <v>28.81794720186</v>
+        <v>10.532850527808</v>
       </c>
       <c r="S13">
-        <v>0.1261069246213213</v>
+        <v>0.06233677021694015</v>
       </c>
       <c r="T13">
-        <v>0.1261069246213213</v>
+        <v>0.06233677021694015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1037266666666667</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H14">
-        <v>0.31118</v>
+        <v>5.274976</v>
       </c>
       <c r="I14">
-        <v>0.02388202381540772</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J14">
-        <v>0.02388202381540772</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.166450999999999</v>
+        <v>0.7894166666666665</v>
       </c>
       <c r="N14">
-        <v>12.499353</v>
+        <v>2.36825</v>
       </c>
       <c r="O14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="P14">
-        <v>0.7126954333415383</v>
+        <v>0.1240129561007488</v>
       </c>
       <c r="Q14">
-        <v>0.43217207406</v>
+        <v>1.388051323555555</v>
       </c>
       <c r="R14">
-        <v>3.88954866654</v>
+        <v>12.492461912</v>
       </c>
       <c r="S14">
-        <v>0.01702060931219494</v>
+        <v>0.07393437565607275</v>
       </c>
       <c r="T14">
-        <v>0.01702060931219494</v>
+        <v>0.07393437565607275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.758325333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.274976</v>
+      </c>
+      <c r="I15">
+        <v>0.5961826730104559</v>
+      </c>
+      <c r="J15">
+        <v>0.5961826730104558</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G15">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.31118</v>
-      </c>
-      <c r="I15">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J15">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.6655859999999999</v>
+        <v>0.08057833333333334</v>
       </c>
       <c r="N15">
-        <v>1.996758</v>
+        <v>0.241735</v>
       </c>
       <c r="O15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="P15">
-        <v>0.1138523176430159</v>
+        <v>0.01265840681643176</v>
       </c>
       <c r="Q15">
-        <v>0.06903901715999999</v>
+        <v>0.1416829248177778</v>
       </c>
       <c r="R15">
-        <v>0.62135115444</v>
+        <v>1.27514632336</v>
       </c>
       <c r="S15">
-        <v>0.002719023761389869</v>
+        <v>0.007546722811874062</v>
       </c>
       <c r="T15">
-        <v>0.002719023761389869</v>
+        <v>0.007546722811874062</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.758325333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.274976</v>
+      </c>
+      <c r="I16">
+        <v>0.5961826730104559</v>
+      </c>
+      <c r="J16">
+        <v>0.5961826730104558</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.16722</v>
+      </c>
+      <c r="N16">
+        <v>0.50166</v>
+      </c>
+      <c r="O16">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P16">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q16">
+        <v>0.29402716224</v>
+      </c>
+      <c r="R16">
+        <v>2.64624446016</v>
+      </c>
+      <c r="S16">
+        <v>0.01566131907173038</v>
+      </c>
+      <c r="T16">
+        <v>0.01566131907173038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.1037266666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.31118</v>
-      </c>
-      <c r="I16">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="J16">
-        <v>0.02388202381540772</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.01401</v>
-      </c>
-      <c r="N16">
-        <v>3.04203</v>
-      </c>
-      <c r="O16">
-        <v>0.1734522490154458</v>
-      </c>
-      <c r="P16">
-        <v>0.1734522490154458</v>
-      </c>
-      <c r="Q16">
-        <v>0.1051798772666667</v>
-      </c>
-      <c r="R16">
-        <v>0.9466188954</v>
-      </c>
-      <c r="S16">
-        <v>0.004142390741822908</v>
-      </c>
-      <c r="T16">
-        <v>0.004142390741822907</v>
+      <c r="G17">
+        <v>0.01541033333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.046231</v>
+      </c>
+      <c r="I17">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="J17">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N17">
+        <v>13.988392</v>
+      </c>
+      <c r="O17">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P17">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q17">
+        <v>0.07185526117244445</v>
+      </c>
+      <c r="R17">
+        <v>0.6466973505520001</v>
+      </c>
+      <c r="S17">
+        <v>0.00382736126700296</v>
+      </c>
+      <c r="T17">
+        <v>0.003827361267002961</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.01541033333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.046231</v>
+      </c>
+      <c r="I18">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="J18">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.996758</v>
+      </c>
+      <c r="O18">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P18">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q18">
+        <v>0.010256902122</v>
+      </c>
+      <c r="R18">
+        <v>0.092312119098</v>
+      </c>
+      <c r="S18">
+        <v>0.0005463325755224971</v>
+      </c>
+      <c r="T18">
+        <v>0.0005463325755224972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.01541033333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.046231</v>
+      </c>
+      <c r="I19">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="J19">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N19">
+        <v>2.36825</v>
+      </c>
+      <c r="O19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P19">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q19">
+        <v>0.01216517397222222</v>
+      </c>
+      <c r="R19">
+        <v>0.10948656575</v>
+      </c>
+      <c r="S19">
+        <v>0.0006479764307848792</v>
+      </c>
+      <c r="T19">
+        <v>0.0006479764307848793</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.01541033333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.046231</v>
+      </c>
+      <c r="I20">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="J20">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.241735</v>
+      </c>
+      <c r="O20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P20">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q20">
+        <v>0.001241738976111111</v>
+      </c>
+      <c r="R20">
+        <v>0.011175650785</v>
+      </c>
+      <c r="S20">
+        <v>6.614106724196466E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.614106724196467E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.01541033333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.046231</v>
+      </c>
+      <c r="I21">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="J21">
+        <v>0.005225070437466708</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.16722</v>
+      </c>
+      <c r="N21">
+        <v>0.50166</v>
+      </c>
+      <c r="O21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P21">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q21">
+        <v>0.00257691594</v>
+      </c>
+      <c r="R21">
+        <v>0.02319224346</v>
+      </c>
+      <c r="S21">
+        <v>0.0001372590969144062</v>
+      </c>
+      <c r="T21">
+        <v>0.0001372590969144063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.060067</v>
+      </c>
+      <c r="I22">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="J22">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.662797333333334</v>
+      </c>
+      <c r="N22">
+        <v>13.988392</v>
+      </c>
+      <c r="O22">
+        <v>0.7324994586787992</v>
+      </c>
+      <c r="P22">
+        <v>0.7324994586787993</v>
+      </c>
+      <c r="Q22">
+        <v>0.09336008247377778</v>
+      </c>
+      <c r="R22">
+        <v>0.8402407422640001</v>
+      </c>
+      <c r="S22">
+        <v>0.00497281281445495</v>
+      </c>
+      <c r="T22">
+        <v>0.004972812814454951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.060067</v>
+      </c>
+      <c r="I23">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="J23">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N23">
+        <v>1.996758</v>
+      </c>
+      <c r="O23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="P23">
+        <v>0.1045598489170565</v>
+      </c>
+      <c r="Q23">
+        <v>0.013326584754</v>
+      </c>
+      <c r="R23">
+        <v>0.119939262786</v>
+      </c>
+      <c r="S23">
+        <v>0.0007098388270621408</v>
+      </c>
+      <c r="T23">
+        <v>0.000709838827062141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.060067</v>
+      </c>
+      <c r="I24">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="J24">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7894166666666665</v>
+      </c>
+      <c r="N24">
+        <v>2.36825</v>
+      </c>
+      <c r="O24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="P24">
+        <v>0.1240129561007488</v>
+      </c>
+      <c r="Q24">
+        <v>0.01580596363888889</v>
+      </c>
+      <c r="R24">
+        <v>0.14225367275</v>
+      </c>
+      <c r="S24">
+        <v>0.0008419026252504886</v>
+      </c>
+      <c r="T24">
+        <v>0.0008419026252504888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.060067</v>
+      </c>
+      <c r="I25">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="J25">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.08057833333333334</v>
+      </c>
+      <c r="N25">
+        <v>0.241735</v>
+      </c>
+      <c r="O25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="P25">
+        <v>0.01265840681643176</v>
+      </c>
+      <c r="Q25">
+        <v>0.001613366249444444</v>
+      </c>
+      <c r="R25">
+        <v>0.014520296245</v>
+      </c>
+      <c r="S25">
+        <v>8.593574627464452E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.593574627464453E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.02002233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.060067</v>
+      </c>
+      <c r="I26">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="J26">
+        <v>0.006788827971865474</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.16722</v>
+      </c>
+      <c r="N26">
+        <v>0.50166</v>
+      </c>
+      <c r="O26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="P26">
+        <v>0.02626932948696365</v>
+      </c>
+      <c r="Q26">
+        <v>0.00334813458</v>
+      </c>
+      <c r="R26">
+        <v>0.03013321122</v>
+      </c>
+      <c r="S26">
+        <v>0.0001783379588232493</v>
+      </c>
+      <c r="T26">
+        <v>0.0001783379588232494</v>
       </c>
     </row>
   </sheetData>
